--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\workspace\FreshGrocer\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC838398-8FBF-4357-997B-2E641C9298B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4485FDD-BB49-4BE9-B742-AAC1C7D9BFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="landing_page" sheetId="1" r:id="rId1"/>
-    <sheet name="login_page" sheetId="2" r:id="rId2"/>
+    <sheet name="login_page" sheetId="2" r:id="rId1"/>
+    <sheet name="landing_page" sheetId="1" r:id="rId2"/>
+    <sheet name="digital_coupons_page" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>locators name</t>
   </si>
@@ -173,6 +174,96 @@
   </si>
   <si>
     <t>.//p[contains(@class,'coupon-brand-name')]</t>
+  </si>
+  <si>
+    <t>categoriesList</t>
+  </si>
+  <si>
+    <t>signOutBtn</t>
+  </si>
+  <si>
+    <t>main-signOutLink</t>
+  </si>
+  <si>
+    <t>.//p[contains(@class,'coupon-expiration-text')]</t>
+  </si>
+  <si>
+    <t>couponDiscount</t>
+  </si>
+  <si>
+    <t>.//div[contains(@class,'coupon-value')]/p</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Clipped') and contains(@class,'facetLink')]</t>
+  </si>
+  <si>
+    <t>clippedLink</t>
+  </si>
+  <si>
+    <t>couponExpiryDate</t>
+  </si>
+  <si>
+    <t>couponDescription</t>
+  </si>
+  <si>
+    <t>.//p[contains(@class,'coupon-desc')]</t>
+  </si>
+  <si>
+    <t>//button[contains(@class,'print-coupons-btn') and contains(text(),'Print Clipped Coupons')]</t>
+  </si>
+  <si>
+    <t>printClippedCouponBtn</t>
+  </si>
+  <si>
+    <t>clippedCouponName</t>
+  </si>
+  <si>
+    <t>//*[contains(@class,'card-body')]//h5</t>
+  </si>
+  <si>
+    <t>showImages</t>
+  </si>
+  <si>
+    <t>showImgesCheckBox</t>
+  </si>
+  <si>
+    <t>//*[contains(@class,'card-body')]//img[contains(@class,'coupon-image')]</t>
+  </si>
+  <si>
+    <t>clippedCouponImg</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'card-body')]//div[contains(@class,'value')]</t>
+  </si>
+  <si>
+    <t>clippedCouponDiscount</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'card-body')]//p[contains(@class,'expires')]</t>
+  </si>
+  <si>
+    <t>clippedCouponExpiryDate</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Close')]</t>
+  </si>
+  <si>
+    <t>closeInPrintClippedCouponBtn</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'All Coupons') and contains(@class,'facetLink')]</t>
+  </si>
+  <si>
+    <t>//*[@title='Category']//ul/li/label</t>
+  </si>
+  <si>
+    <t>brandsList</t>
+  </si>
+  <si>
+    <t>//*[@title='Brand']//ul/li/label</t>
+  </si>
+  <si>
+    <t>allCouponsLink</t>
   </si>
 </sst>
 </file>
@@ -498,11 +589,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2802F9-C8EF-4362-B77D-B492C252ABE0}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,123 +779,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -749,19 +794,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2802F9-C8EF-4362-B77D-B492C252ABE0}">
-  <dimension ref="A1:C4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732602EC-80E6-42FB-9BD0-EB0226F871B8}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -777,34 +822,298 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
         <v>10</v>
       </c>
     </row>

--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4485FDD-BB49-4BE9-B742-AAC1C7D9BFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F03C3F-6383-4A70-BAEE-87E3EC21A01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>locators name</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>allCouponsLink</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'modal-content')]</t>
+  </si>
+  <si>
+    <t>modalContent</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'modal-content')]//button[contains(text(),'Close')]</t>
+  </si>
+  <si>
+    <t>modalContentCloseBtn</t>
   </si>
 </sst>
 </file>
@@ -796,10 +808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732602EC-80E6-42FB-9BD0-EB0226F871B8}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,10 +1010,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1009,10 +1021,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1020,10 +1032,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1031,10 +1043,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1042,10 +1054,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1053,10 +1065,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1064,10 +1076,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1075,10 +1087,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1086,21 +1098,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1108,12 +1120,34 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
     </row>

--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F03C3F-6383-4A70-BAEE-87E3EC21A01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92310DC0-C0A2-4379-8389-7B0FD1AA44BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>locators name</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>modalContentCloseBtn</t>
+  </si>
+  <si>
+    <t>noClippedCouponsText</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'no-coupons-msg-container')]//p[contains(text(),'No coupons match your search')]</t>
   </si>
 </sst>
 </file>
@@ -808,16 +814,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732602EC-80E6-42FB-9BD0-EB0226F871B8}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="2" max="2" width="89.21875" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1065,10 +1071,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1076,10 +1082,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1087,10 +1093,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1098,10 +1104,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1109,10 +1115,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1120,34 +1126,45 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
     </row>

--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92310DC0-C0A2-4379-8389-7B0FD1AA44BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8D02B4-D05D-4D31-A0CE-52E73F575EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>locators name</t>
   </si>
@@ -218,30 +218,18 @@
     <t>clippedCouponName</t>
   </si>
   <si>
-    <t>//*[contains(@class,'card-body')]//h5</t>
-  </si>
-  <si>
     <t>showImages</t>
   </si>
   <si>
     <t>showImgesCheckBox</t>
   </si>
   <si>
-    <t>//*[contains(@class,'card-body')]//img[contains(@class,'coupon-image')]</t>
-  </si>
-  <si>
     <t>clippedCouponImg</t>
   </si>
   <si>
-    <t>//div[contains(@class,'card-body')]//div[contains(@class,'value')]</t>
-  </si>
-  <si>
     <t>clippedCouponDiscount</t>
   </si>
   <si>
-    <t>//div[contains(@class,'card-body')]//p[contains(@class,'expires')]</t>
-  </si>
-  <si>
     <t>clippedCouponExpiryDate</t>
   </si>
   <si>
@@ -282,6 +270,30 @@
   </si>
   <si>
     <t>//div[contains(@class,'no-coupons-msg-container')]//p[contains(text(),'No coupons match your search')]</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'modal-dialog')]//button[contains(text(),'Ok')]</t>
+  </si>
+  <si>
+    <t>modalContentOkBtn</t>
+  </si>
+  <si>
+    <t>clippedCoupons</t>
+  </si>
+  <si>
+    <t>//*[contains(@class,'card-body')]</t>
+  </si>
+  <si>
+    <t>.//h5</t>
+  </si>
+  <si>
+    <t>.//img[contains(@class,'coupon-image')]</t>
+  </si>
+  <si>
+    <t>.//p[contains(@class,'expires')]</t>
+  </si>
+  <si>
+    <t>.//div[contains(@class,'value')]</t>
   </si>
 </sst>
 </file>
@@ -814,10 +826,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732602EC-80E6-42FB-9BD0-EB0226F871B8}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,7 +910,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -906,10 +918,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1005,10 +1017,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1016,10 +1028,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1027,10 +1039,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1060,10 +1072,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1071,10 +1083,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1082,10 +1094,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1093,10 +1105,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1104,10 +1116,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1115,10 +1127,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1126,10 +1138,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1137,21 +1149,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1159,12 +1171,23 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>10</v>
       </c>
     </row>

--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8D02B4-D05D-4D31-A0CE-52E73F575EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD9C240-9F14-43A7-AED3-6B48E74F2139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t>locators name</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>.//div[contains(@class,'value')]</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'modal-content')]/div[contains(@class,'modal-body')]/p</t>
+  </si>
+  <si>
+    <t>modalContentBody</t>
+  </si>
+  <si>
+    <t>//*[@class='print-coupon']//*[contains(text(),'Loading..')]</t>
+  </si>
+  <si>
+    <t>printLoadingText</t>
   </si>
 </sst>
 </file>
@@ -826,10 +838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732602EC-80E6-42FB-9BD0-EB0226F871B8}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,10 +1040,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1039,10 +1051,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1050,10 +1062,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1061,10 +1073,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1072,10 +1084,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1083,10 +1095,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1094,10 +1106,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1105,10 +1117,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1116,10 +1128,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1127,10 +1139,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1138,10 +1150,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1149,10 +1161,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1160,10 +1172,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1171,23 +1183,45 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>10</v>
       </c>
     </row>

--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD9C240-9F14-43A7-AED3-6B48E74F2139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EC9EB1-68A4-4470-8B1C-AC06322E2313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>modalContentOkBtn</t>
   </si>
   <si>
-    <t>clippedCoupons</t>
-  </si>
-  <si>
     <t>//*[contains(@class,'card-body')]</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>printLoadingText</t>
+  </si>
+  <si>
+    <t>clippedCouponsInPrintTab</t>
   </si>
 </sst>
 </file>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732602EC-80E6-42FB-9BD0-EB0226F871B8}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1175,7 +1175,7 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1186,7 +1186,7 @@
         <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>

--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EC9EB1-68A4-4470-8B1C-AC06322E2313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF56F25-E79E-4B09-80D2-BF04D36873FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="2" r:id="rId1"/>
     <sheet name="landing_page" sheetId="1" r:id="rId2"/>
     <sheet name="digital_coupons_page" sheetId="3" r:id="rId3"/>
+    <sheet name="my_account_page" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
   <si>
     <t>locators name</t>
   </si>
@@ -306,6 +307,108 @@
   </si>
   <si>
     <t>clippedCouponsInPrintTab</t>
+  </si>
+  <si>
+    <t>myAccountTitle</t>
+  </si>
+  <si>
+    <t>//*[@id='BoxTitle']//*[contains(text(),'My Account')]</t>
+  </si>
+  <si>
+    <t>myProfileEditBtn</t>
+  </si>
+  <si>
+    <t>EditBasicProfile</t>
+  </si>
+  <si>
+    <t>firstNameTextBox</t>
+  </si>
+  <si>
+    <t>FirstNameInput</t>
+  </si>
+  <si>
+    <t>firstNameValidationText</t>
+  </si>
+  <si>
+    <t>//span[@for='FirstNameInput']</t>
+  </si>
+  <si>
+    <t>lastNameTextBox</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>lastNameValidationText</t>
+  </si>
+  <si>
+    <t>//span[@for='LastName']</t>
+  </si>
+  <si>
+    <t>primaryPhoneTextBox</t>
+  </si>
+  <si>
+    <t>Phone1Input</t>
+  </si>
+  <si>
+    <t>primaryPhoneCheckBox</t>
+  </si>
+  <si>
+    <t>Phone1_IsMobile</t>
+  </si>
+  <si>
+    <t>alternatePhoneTextBox</t>
+  </si>
+  <si>
+    <t>Phone2Input</t>
+  </si>
+  <si>
+    <t>alternatePhoneCheckBox</t>
+  </si>
+  <si>
+    <t>Phone2_IsMobile</t>
+  </si>
+  <si>
+    <t>preferredContactTypeDropdown</t>
+  </si>
+  <si>
+    <t>PreferredContactTypeSelect</t>
+  </si>
+  <si>
+    <t>stateDropdown</t>
+  </si>
+  <si>
+    <t>LocatorRegionFilterSelect</t>
+  </si>
+  <si>
+    <t>homeStoreDropdown</t>
+  </si>
+  <si>
+    <t>WFCPreferredStoreSelect</t>
+  </si>
+  <si>
+    <t>UpdateBasicProfile</t>
+  </si>
+  <si>
+    <t>dvProfileUpdate</t>
+  </si>
+  <si>
+    <t>//*[@id="AccountHeaderButton-content"]//a[text()='My Account Settings']</t>
+  </si>
+  <si>
+    <t>myAccountSettingsLink</t>
+  </si>
+  <si>
+    <t>updateProfileBtn</t>
+  </si>
+  <si>
+    <t>profileValidationText</t>
+  </si>
+  <si>
+    <t>//*[@id='BreadcrumbTopContainer']//a[contains(text(),'Home')]</t>
+  </si>
+  <si>
+    <t>homeLink</t>
   </si>
 </sst>
 </file>
@@ -349,9 +452,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,12 +925,23 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -840,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732602EC-80E6-42FB-9BD0-EB0226F871B8}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1228,4 +1343,212 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1207973B-9533-48C8-B843-CFC008ABB421}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="85" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF56F25-E79E-4B09-80D2-BF04D36873FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F77346E-35B6-44CD-A774-694C38BC346D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="690" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="2" r:id="rId1"/>
     <sheet name="landing_page" sheetId="1" r:id="rId2"/>
     <sheet name="digital_coupons_page" sheetId="3" r:id="rId3"/>
     <sheet name="my_account_page" sheetId="4" r:id="rId4"/>
+    <sheet name="add_edit_address_page" sheetId="5" r:id="rId5"/>
+    <sheet name="personal_information_form" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="183">
   <si>
     <t>locators name</t>
   </si>
@@ -375,9 +377,6 @@
     <t>PreferredContactTypeSelect</t>
   </si>
   <si>
-    <t>stateDropdown</t>
-  </si>
-  <si>
     <t>LocatorRegionFilterSelect</t>
   </si>
   <si>
@@ -409,6 +408,177 @@
   </si>
   <si>
     <t>homeLink</t>
+  </si>
+  <si>
+    <t>addressBookEditBtn</t>
+  </si>
+  <si>
+    <t>addNewAddressBtn</t>
+  </si>
+  <si>
+    <t>btnAddAddress</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>addressTextBox</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>cityTextBox</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>stateDropDown</t>
+  </si>
+  <si>
+    <t>zipcodeTextBox</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>phoneNumber1</t>
+  </si>
+  <si>
+    <t>UpdateAddress</t>
+  </si>
+  <si>
+    <t>saveAddressBtn</t>
+  </si>
+  <si>
+    <t>//*[@id="PPCHelpClose"]/h2[contains(text(),'Add/Edit Address')]</t>
+  </si>
+  <si>
+    <t>addEditAddressTitle</t>
+  </si>
+  <si>
+    <t>addressValidationText</t>
+  </si>
+  <si>
+    <t>dvAddressUpdate</t>
+  </si>
+  <si>
+    <t>//*[@id="AddressSummary"]//button[contains(text(),'Edit')]</t>
+  </si>
+  <si>
+    <t>optionDetails_HouseHoldQty</t>
+  </si>
+  <si>
+    <t>membersDropDown</t>
+  </si>
+  <si>
+    <t>birthDateTextBox</t>
+  </si>
+  <si>
+    <t>GenderMale</t>
+  </si>
+  <si>
+    <t>maleRadioBtn</t>
+  </si>
+  <si>
+    <t>GenderFemale</t>
+  </si>
+  <si>
+    <t>femaleRadioBtn</t>
+  </si>
+  <si>
+    <t>RcvTextMsgYes</t>
+  </si>
+  <si>
+    <t>textYesRadioBtn</t>
+  </si>
+  <si>
+    <t>textNoRadioBtn</t>
+  </si>
+  <si>
+    <t>RcvTextMsgNo</t>
+  </si>
+  <si>
+    <t>RcvPromoMailYes</t>
+  </si>
+  <si>
+    <t>promotionYesRadioBtn</t>
+  </si>
+  <si>
+    <t>promotionNoRadioBtn</t>
+  </si>
+  <si>
+    <t>RcvPromoMailNo</t>
+  </si>
+  <si>
+    <t>DigitalReceiptOptInYes</t>
+  </si>
+  <si>
+    <t>DigitalReceiptOptInNo</t>
+  </si>
+  <si>
+    <t>receiptYesRadioBtn</t>
+  </si>
+  <si>
+    <t>receiptNoRadioBtn</t>
+  </si>
+  <si>
+    <t>DigitalReceiptEmailOptInYes</t>
+  </si>
+  <si>
+    <t>DigitalReceiptEmailOptInNo</t>
+  </si>
+  <si>
+    <t>emailYesRadioBtn</t>
+  </si>
+  <si>
+    <t>emailNoRadioBtn</t>
+  </si>
+  <si>
+    <t>UpdateEnrollOptInfo</t>
+  </si>
+  <si>
+    <t>updatePersonalInfoBtn</t>
+  </si>
+  <si>
+    <t>personalInformationEditBtn</t>
+  </si>
+  <si>
+    <t>EditAdditionalProfileInfo</t>
+  </si>
+  <si>
+    <t>dvPersonalInfoUpdate</t>
+  </si>
+  <si>
+    <t>personalInformationValidationText</t>
+  </si>
+  <si>
+    <t>//input[@id='BirthDate']</t>
+  </si>
+  <si>
+    <t>addressDeleteBtn</t>
+  </si>
+  <si>
+    <t>//*[@id="Addresses"]//button[contains(text(),'Delete')]</t>
+  </si>
+  <si>
+    <t>//*[@id="UserDataBox"]//div[contains(@class,'spinnerOverlay')]</t>
+  </si>
+  <si>
+    <t>ajaxLoadingSpinner</t>
+  </si>
+  <si>
+    <t>availableSoonBtn</t>
+  </si>
+  <si>
+    <t>.//a[contains(text(),'Available Soon')]</t>
   </si>
 </sst>
 </file>
@@ -925,10 +1095,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -953,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732602EC-80E6-42FB-9BD0-EB0226F871B8}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,10 +1380,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1221,10 +1391,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1232,10 +1402,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1243,10 +1413,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1254,10 +1424,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1265,10 +1435,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1276,10 +1446,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1287,10 +1457,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1298,10 +1468,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -1309,10 +1479,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1320,23 +1490,34 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1347,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1207973B-9533-48C8-B843-CFC008ABB421}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,10 +1554,10 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1505,10 +1686,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" t="s">
-        <v>116</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1516,10 +1697,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1527,10 +1708,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1538,17 +1719,399 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E83B3-DDEF-4C77-A43B-75A7D13CDF4E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" customWidth="1"/>
+    <col min="3" max="4" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C1E1BA-8663-4124-B10D-D09B2649A3B9}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="72.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F77346E-35B6-44CD-A774-694C38BC346D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF8CAD9-7EC0-4865-8455-E6796532B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="690" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="690" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="192">
   <si>
     <t>locators name</t>
   </si>
@@ -470,9 +470,6 @@
     <t>dvAddressUpdate</t>
   </si>
   <si>
-    <t>//*[@id="AddressSummary"]//button[contains(text(),'Edit')]</t>
-  </si>
-  <si>
     <t>optionDetails_HouseHoldQty</t>
   </si>
   <si>
@@ -566,12 +563,6 @@
     <t>addressDeleteBtn</t>
   </si>
   <si>
-    <t>//*[@id="Addresses"]//button[contains(text(),'Delete')]</t>
-  </si>
-  <si>
-    <t>//*[@id="UserDataBox"]//div[contains(@class,'spinnerOverlay')]</t>
-  </si>
-  <si>
     <t>ajaxLoadingSpinner</t>
   </si>
   <si>
@@ -579,6 +570,42 @@
   </si>
   <si>
     <t>.//a[contains(text(),'Available Soon')]</t>
+  </si>
+  <si>
+    <t>//*[@id='AddressDisplay']</t>
+  </si>
+  <si>
+    <t>addressesList</t>
+  </si>
+  <si>
+    <t>addressLines</t>
+  </si>
+  <si>
+    <t>.//ul/li</t>
+  </si>
+  <si>
+    <t>.//button[contains(text(),'Delete')]</t>
+  </si>
+  <si>
+    <t>//*[@id='AddressSummary']//button[contains(text(),'Edit')]</t>
+  </si>
+  <si>
+    <t>//*[@id='UserDataBox']//div[contains(@class,'spinnerOverlay')]</t>
+  </si>
+  <si>
+    <t>dvEditAddressUpdate</t>
+  </si>
+  <si>
+    <t>addressEditBtn</t>
+  </si>
+  <si>
+    <t>.//button[contains(text(),'Edit')]</t>
+  </si>
+  <si>
+    <t>AddressBookCancelButton</t>
+  </si>
+  <si>
+    <t>cancelAddressBtn</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732602EC-80E6-42FB-9BD0-EB0226F871B8}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1380,10 +1407,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1528,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1207973B-9533-48C8-B843-CFC008ABB421}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1733,7 +1760,7 @@
         <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1763,10 +1790,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1774,34 +1801,67 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1813,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E83B3-DDEF-4C77-A43B-75A7D13CDF4E}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,6 +1993,28 @@
         <v>140</v>
       </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1970,10 +2052,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1981,10 +2063,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1992,10 +2074,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2003,10 +2085,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2014,10 +2096,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2025,10 +2107,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>157</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2036,10 +2118,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2047,10 +2129,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
         <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2058,10 +2140,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2069,10 +2151,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2080,10 +2162,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2091,10 +2173,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2102,10 +2184,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>

--- a/FreshGrocer/target/classes/TestData/locators.xlsx
+++ b/FreshGrocer/target/classes/TestData/locators.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY\git\Fresh-Grocer\FreshGrocer\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF8CAD9-7EC0-4865-8455-E6796532B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619D251D-F85B-4D8D-A676-6B693E91CD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="690" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="696" windowWidth="17364" windowHeight="8556" tabRatio="690" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="2" r:id="rId1"/>
     <sheet name="landing_page" sheetId="1" r:id="rId2"/>
     <sheet name="digital_coupons_page" sheetId="3" r:id="rId3"/>
     <sheet name="my_account_page" sheetId="4" r:id="rId4"/>
-    <sheet name="add_edit_address_page" sheetId="5" r:id="rId5"/>
-    <sheet name="personal_information_form" sheetId="6" r:id="rId6"/>
+    <sheet name="my_profile_form" sheetId="8" r:id="rId5"/>
+    <sheet name="email_subscription_form" sheetId="7" r:id="rId6"/>
+    <sheet name="add_edit_address_page" sheetId="5" r:id="rId7"/>
+    <sheet name="personal_information_form" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="212">
   <si>
     <t>locators name</t>
   </si>
@@ -606,6 +608,66 @@
   </si>
   <si>
     <t>cancelAddressBtn</t>
+  </si>
+  <si>
+    <t>emailSubscriptionsEditBtn</t>
+  </si>
+  <si>
+    <t>EditEmailPreferences</t>
+  </si>
+  <si>
+    <t>brandLogoTop</t>
+  </si>
+  <si>
+    <t>brandLogo</t>
+  </si>
+  <si>
+    <t>emailSubscriptionframe</t>
+  </si>
+  <si>
+    <t>EmailSubscriptionIframe</t>
+  </si>
+  <si>
+    <t>checkBoxes</t>
+  </si>
+  <si>
+    <t>//input[@type='checkbox']</t>
+  </si>
+  <si>
+    <t>submitBtn</t>
+  </si>
+  <si>
+    <t>//input[@type='submit' and @value='Submit']</t>
+  </si>
+  <si>
+    <t>loadingText</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Loading email preferences')]</t>
+  </si>
+  <si>
+    <t>successMessage</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Thank you for updating your email preferences.')]</t>
+  </si>
+  <si>
+    <t>emailSubscriptionOptions</t>
+  </si>
+  <si>
+    <t>EmailSubscriptionOptions</t>
+  </si>
+  <si>
+    <t>cancelBtn</t>
+  </si>
+  <si>
+    <t>UpdateEmailPrefCancel</t>
+  </si>
+  <si>
+    <t>emailOptions</t>
+  </si>
+  <si>
+    <t>.//label</t>
   </si>
 </sst>
 </file>
@@ -1555,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1207973B-9533-48C8-B843-CFC008ABB421}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,12 +1918,23 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>177</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>186</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1872,10 +1945,304 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB11D5-AD3A-4B77-A277-F7B8D24E85A0}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF2F31C-63A2-4ADB-AD2D-1295347A6316}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="67.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E83B3-DDEF-4C77-A43B-75A7D13CDF4E}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2024,7 +2391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C1E1BA-8663-4124-B10D-D09B2649A3B9}">
   <dimension ref="A1:C14"/>
   <sheetViews>
